--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekt_nai\NAIProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D009E-95B8-4748-850A-5202235AF0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18885465-E6FE-4430-837D-05B6E2CC1C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6035A05-28FF-489F-8C24-1C26C6C0D086}"/>
   </bookViews>
@@ -524,13 +524,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F46D8FC-1050-4E28-9F5C-7A0B22A3DE14}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="255.5703125" customWidth="1"/>
     <col min="86" max="86" width="14" customWidth="1"/>
   </cols>
